--- a/정산.xlsx
+++ b/정산.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwakh\Desktop\새 폴더\Trable_money\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwakh\Desktop\알파카\Trable_money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064AEEC4-6674-4B2B-91BA-7971B9707A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35777F4-A6A6-4D82-85FB-A43A91AE28DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{698876F9-46BE-4F53-9E76-1F69EAA5FA2D}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{698876F9-46BE-4F53-9E76-1F69EAA5FA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>비행기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +113,62 @@
   </si>
   <si>
     <t>1인당 지출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽호원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이태희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임종민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문승현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오타루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삿포로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽호원,김동운,임종민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이태희,문승현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽호원,이태희,김동운,문승현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소비1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소비2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +199,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +215,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -195,7 +279,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -203,6 +287,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA14678-755E-4353-A3D6-DEEE606B8F51}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -549,14 +654,16 @@
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="11.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.75" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9" style="3"/>
     <col min="10" max="11" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -579,7 +686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -608,14 +715,14 @@
         <v>8</v>
       </c>
       <c r="N2" s="9">
-        <f>SUM(J2,J5,J7,J9,J11,J13,J15,J17,J19,J21,J23,J25,J27)</f>
+        <f>SUM(J2,J5)</f>
         <v>2001972.5</v>
       </c>
       <c r="O2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -638,7 +745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -665,7 +772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -694,8 +801,23 @@
       <c r="K5" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -707,8 +829,31 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M6" s="15" cm="1">
+        <f t="array" ref="M6">SUM(ROUND(M7:M10, -1))</f>
+        <v>692410</v>
+      </c>
+      <c r="N6" s="15" cm="1">
+        <f t="array" ref="N6">SUM(ROUND(N7:N10, -1))</f>
+        <v>685090</v>
+      </c>
+      <c r="O6" s="15" cm="1">
+        <f t="array" ref="O6">SUM(ROUND(O7:O10, -1))</f>
+        <v>692410</v>
+      </c>
+      <c r="P6" s="15" cm="1">
+        <f t="array" ref="P6">SUM(ROUND(P7:P10, -1))</f>
+        <v>680430</v>
+      </c>
+      <c r="Q6" s="15" cm="1">
+        <f t="array" ref="Q6">SUM(ROUND(Q7:Q10, -1))</f>
+        <v>685090</v>
+      </c>
+      <c r="R6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -720,8 +865,34 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="17">
+        <f>N3</f>
+        <v>400394.5</v>
+      </c>
+      <c r="N7" s="17">
+        <f>N3</f>
+        <v>400394.5</v>
+      </c>
+      <c r="O7" s="17">
+        <f>N3</f>
+        <v>400394.5</v>
+      </c>
+      <c r="P7" s="17">
+        <f>N3</f>
+        <v>400394.5</v>
+      </c>
+      <c r="Q7" s="17">
+        <f>N3</f>
+        <v>400394.5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -733,8 +904,34 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="16">
+        <f>J18</f>
+        <v>36727.666666666664</v>
+      </c>
+      <c r="N8" s="16">
+        <f>J19</f>
+        <v>29405</v>
+      </c>
+      <c r="O8" s="16">
+        <f>J18</f>
+        <v>36727.666666666664</v>
+      </c>
+      <c r="P8" s="16">
+        <f>J18</f>
+        <v>36727.666666666664</v>
+      </c>
+      <c r="Q8" s="16">
+        <f>J19</f>
+        <v>29405</v>
+      </c>
+      <c r="R8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -746,8 +943,34 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="16">
+        <f>J22</f>
+        <v>234922.4</v>
+      </c>
+      <c r="N9" s="16">
+        <f>J22</f>
+        <v>234922.4</v>
+      </c>
+      <c r="O9" s="16">
+        <f>J22</f>
+        <v>234922.4</v>
+      </c>
+      <c r="P9" s="16">
+        <f>J22</f>
+        <v>234922.4</v>
+      </c>
+      <c r="Q9" s="16">
+        <f>J22</f>
+        <v>234922.4</v>
+      </c>
+      <c r="R9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -759,8 +982,34 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="16">
+        <f>J26</f>
+        <v>20370</v>
+      </c>
+      <c r="N10" s="16">
+        <f>J26</f>
+        <v>20370</v>
+      </c>
+      <c r="O10" s="16">
+        <f>J26</f>
+        <v>20370</v>
+      </c>
+      <c r="P10" s="16">
+        <f>J25</f>
+        <v>8390</v>
+      </c>
+      <c r="Q10" s="16">
+        <f>J26</f>
+        <v>20370</v>
+      </c>
+      <c r="R10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -772,8 +1021,13 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -785,8 +1039,13 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -798,8 +1057,13 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -811,21 +1075,31 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -837,47 +1111,97 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="7">
+        <v>110183</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <f>B18/C18</f>
+        <v>36727.666666666664</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J18" s="7">
+        <f>D18</f>
+        <v>36727.666666666664</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="7">
+        <v>58810</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <f>B19/C19</f>
+        <v>29405</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="7">
+        <f>D19</f>
+        <v>29405</v>
+      </c>
       <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -889,38 +1213,69 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1174612</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7">
+        <f>B22/C22</f>
+        <v>234922.4</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J22" s="7">
+        <f>D22</f>
+        <v>234922.4</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -928,47 +1283,97 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7">
+        <v>8390</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <f>B25/C25</f>
+        <v>8390</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J25" s="7">
+        <f>D25</f>
+        <v>8390</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="B26" s="7">
+        <v>81480</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <f>B26/C26</f>
+        <v>20370</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J26" s="7">
+        <f>D26</f>
+        <v>20370</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -980,8 +1385,11 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -993,8 +1401,11 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1006,8 +1417,11 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1019,8 +1433,11 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1032,8 +1449,11 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1045,8 +1465,11 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1058,8 +1481,11 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1071,8 +1497,11 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1084,8 +1513,11 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1097,8 +1529,11 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1111,7 +1546,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1124,7 +1559,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1137,6 +1572,136 @@
       <c r="J39" s="2"/>
       <c r="K39" s="4"/>
     </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/정산.xlsx
+++ b/정산.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwakh\Desktop\알파카\Trable_money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35777F4-A6A6-4D82-85FB-A43A91AE28DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23C8CB5-931B-48C7-9A38-336F4F6380B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{698876F9-46BE-4F53-9E76-1F69EAA5FA2D}"/>
   </bookViews>
@@ -254,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,9 +288,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,10 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -646,7 +640,7 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -658,7 +652,7 @@
     <col min="5" max="5" width="26.75" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9" style="3"/>
     <col min="10" max="11" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.25" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -829,23 +823,23 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="4"/>
-      <c r="M6" s="15" cm="1">
+      <c r="M6" s="14" cm="1">
         <f t="array" ref="M6">SUM(ROUND(M7:M10, -1))</f>
         <v>692410</v>
       </c>
-      <c r="N6" s="15" cm="1">
+      <c r="N6" s="14" cm="1">
         <f t="array" ref="N6">SUM(ROUND(N7:N10, -1))</f>
         <v>685090</v>
       </c>
-      <c r="O6" s="15" cm="1">
+      <c r="O6" s="14" cm="1">
         <f t="array" ref="O6">SUM(ROUND(O7:O10, -1))</f>
         <v>692410</v>
       </c>
-      <c r="P6" s="15" cm="1">
+      <c r="P6" s="14" cm="1">
         <f t="array" ref="P6">SUM(ROUND(P7:P10, -1))</f>
         <v>680430</v>
       </c>
-      <c r="Q6" s="15" cm="1">
+      <c r="Q6" s="14" cm="1">
         <f t="array" ref="Q6">SUM(ROUND(Q7:Q10, -1))</f>
         <v>685090</v>
       </c>
@@ -868,23 +862,23 @@
       <c r="L7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="13">
         <f>N3</f>
         <v>400394.5</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="13">
         <f>N3</f>
         <v>400394.5</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="13">
         <f>N3</f>
         <v>400394.5</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="13">
         <f>N3</f>
         <v>400394.5</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="13">
         <f>N3</f>
         <v>400394.5</v>
       </c>
@@ -904,26 +898,26 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="15">
         <f>J18</f>
         <v>36727.666666666664</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="15">
         <f>J19</f>
         <v>29405</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="15">
         <f>J18</f>
         <v>36727.666666666664</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="15">
         <f>J18</f>
         <v>36727.666666666664</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="15">
         <f>J19</f>
         <v>29405</v>
       </c>
@@ -943,26 +937,26 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="15">
         <f>J22</f>
         <v>234922.4</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="15">
         <f>J22</f>
         <v>234922.4</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="15">
         <f>J22</f>
         <v>234922.4</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="15">
         <f>J22</f>
         <v>234922.4</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="15">
         <f>J22</f>
         <v>234922.4</v>
       </c>
@@ -982,26 +976,26 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="15">
         <f>J26</f>
         <v>20370</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="15">
         <f>J26</f>
         <v>20370</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="15">
         <f>J26</f>
         <v>20370</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="15">
         <f>J25</f>
         <v>8390</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="15">
         <f>J26</f>
         <v>20370</v>
       </c>
@@ -1021,11 +1015,9 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
@@ -1039,11 +1031,13 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
+      <c r="N12" s="3">
+        <f>N6-140000</f>
+        <v>545090</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -1057,11 +1051,9 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="4"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -1075,29 +1067,25 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="4"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
@@ -1111,11 +1099,9 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="4"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>

--- a/정산.xlsx
+++ b/정산.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwakh\Desktop\알파카\Trable_money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23C8CB5-931B-48C7-9A38-336F4F6380B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7F0C28-320C-4D48-A32C-437334225F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{698876F9-46BE-4F53-9E76-1F69EAA5FA2D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{698876F9-46BE-4F53-9E76-1F69EAA5FA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>비행기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이태희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김동운</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,27 +144,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>곽호원,김동운,임종민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이태희,문승현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유심</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>곽호원,이태희,김동운,문승현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>숙소비1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>숙소비2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인원변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽호원,김동운,문승현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽호원,김동운,임종민,문승현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +636,7 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -668,7 +664,9 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -693,14 +691,16 @@
       <c r="D2" s="7">
         <v>50000</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="7">
+        <v>-386572</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="7">
-        <f>SUM(B2:D2)</f>
-        <v>1932860</v>
+        <f>SUM(B2:E2)</f>
+        <v>1546288</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>10</v>
@@ -710,7 +710,7 @@
       </c>
       <c r="N2" s="9">
         <f>SUM(J2,J5)</f>
-        <v>2001972.5</v>
+        <v>1615400.5</v>
       </c>
       <c r="O2" t="s">
         <v>10</v>
@@ -732,8 +732,8 @@
         <v>13</v>
       </c>
       <c r="N3" s="10">
-        <f>N2/5</f>
-        <v>400394.5</v>
+        <f>N2/4</f>
+        <v>403850.125</v>
       </c>
       <c r="O3" t="s">
         <v>10</v>
@@ -798,17 +798,15 @@
       <c r="M5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -825,23 +823,20 @@
       <c r="K6" s="4"/>
       <c r="M6" s="14" cm="1">
         <f t="array" ref="M6">SUM(ROUND(M7:M10, -1))</f>
-        <v>692410</v>
-      </c>
-      <c r="N6" s="14" cm="1">
-        <f t="array" ref="N6">SUM(ROUND(N7:N10, -1))</f>
-        <v>685090</v>
-      </c>
+        <v>712550</v>
+      </c>
+      <c r="N6" s="14"/>
       <c r="O6" s="14" cm="1">
         <f t="array" ref="O6">SUM(ROUND(O7:O10, -1))</f>
-        <v>692410</v>
+        <v>712550</v>
       </c>
       <c r="P6" s="14" cm="1">
         <f t="array" ref="P6">SUM(ROUND(P7:P10, -1))</f>
-        <v>680430</v>
+        <v>700570</v>
       </c>
       <c r="Q6" s="14" cm="1">
         <f t="array" ref="Q6">SUM(ROUND(Q7:Q10, -1))</f>
-        <v>685090</v>
+        <v>712550</v>
       </c>
       <c r="R6" t="s">
         <v>10</v>
@@ -864,23 +859,20 @@
       </c>
       <c r="M7" s="13">
         <f>N3</f>
-        <v>400394.5</v>
-      </c>
-      <c r="N7" s="13">
-        <f>N3</f>
-        <v>400394.5</v>
-      </c>
+        <v>403850.125</v>
+      </c>
+      <c r="N7" s="13"/>
       <c r="O7" s="13">
         <f>N3</f>
-        <v>400394.5</v>
+        <v>403850.125</v>
       </c>
       <c r="P7" s="13">
         <f>N3</f>
-        <v>400394.5</v>
+        <v>403850.125</v>
       </c>
       <c r="Q7" s="13">
         <f>N3</f>
-        <v>400394.5</v>
+        <v>403850.125</v>
       </c>
       <c r="R7" t="s">
         <v>10</v>
@@ -899,27 +891,24 @@
       <c r="J8" s="2"/>
       <c r="K8" s="4"/>
       <c r="L8" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M8" s="15">
         <f>J18</f>
-        <v>36727.666666666664</v>
-      </c>
-      <c r="N8" s="15">
-        <f>J19</f>
-        <v>29405</v>
-      </c>
+        <v>28063.75</v>
+      </c>
+      <c r="N8" s="15"/>
       <c r="O8" s="15">
         <f>J18</f>
-        <v>36727.666666666664</v>
+        <v>28063.75</v>
       </c>
       <c r="P8" s="15">
         <f>J18</f>
-        <v>36727.666666666664</v>
+        <v>28063.75</v>
       </c>
       <c r="Q8" s="15">
-        <f>J19</f>
-        <v>29405</v>
+        <f>J18</f>
+        <v>28063.75</v>
       </c>
       <c r="R8" t="s">
         <v>10</v>
@@ -938,27 +927,24 @@
       <c r="J9" s="2"/>
       <c r="K9" s="4"/>
       <c r="L9" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M9" s="15">
         <f>J22</f>
-        <v>234922.4</v>
-      </c>
-      <c r="N9" s="15">
-        <f>J22</f>
-        <v>234922.4</v>
-      </c>
+        <v>260267.5</v>
+      </c>
+      <c r="N9" s="15"/>
       <c r="O9" s="15">
         <f>J22</f>
-        <v>234922.4</v>
+        <v>260267.5</v>
       </c>
       <c r="P9" s="15">
         <f>J22</f>
-        <v>234922.4</v>
+        <v>260267.5</v>
       </c>
       <c r="Q9" s="15">
         <f>J22</f>
-        <v>234922.4</v>
+        <v>260267.5</v>
       </c>
       <c r="R9" t="s">
         <v>10</v>
@@ -977,16 +963,13 @@
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M10" s="15">
         <f>J26</f>
         <v>20370</v>
       </c>
-      <c r="N10" s="15">
-        <f>J26</f>
-        <v>20370</v>
-      </c>
+      <c r="N10" s="15"/>
       <c r="O10" s="15">
         <f>J26</f>
         <v>20370</v>
@@ -1031,10 +1014,6 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
-      <c r="N12" s="3">
-        <f>N6-140000</f>
-        <v>545090</v>
-      </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -1106,10 +1085,10 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1129,20 +1108,20 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B18" s="7">
-        <v>110183</v>
+        <v>112255</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
         <f>B18/C18</f>
-        <v>36727.666666666664</v>
+        <v>28063.75</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1150,7 +1129,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="7">
         <f>D18</f>
-        <v>36727.666666666664</v>
+        <v>28063.75</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>10</v>
@@ -1161,27 +1140,15 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="7">
-        <v>58810</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7">
-        <f>B19/C19</f>
-        <v>29405</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="7">
-        <f>D19</f>
-        <v>29405</v>
-      </c>
+      <c r="J19" s="7"/>
       <c r="K19" s="4"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -1206,10 +1173,10 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1229,17 +1196,17 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B22" s="7">
-        <v>1174612</v>
+        <v>1041070</v>
       </c>
       <c r="C22" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
         <f>B22/C22</f>
-        <v>234922.4</v>
+        <v>260267.5</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -1248,7 +1215,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="7">
         <f>D22</f>
-        <v>234922.4</v>
+        <v>260267.5</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>10</v>
@@ -1276,10 +1243,10 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1299,7 +1266,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="7">
         <v>8390</v>
@@ -1312,7 +1279,7 @@
         <v>8390</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>

--- a/정산.xlsx
+++ b/정산.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwakh\Desktop\알파카\Trable_money\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS-NP034\Desktop\알파카\Trable_money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7F0C28-320C-4D48-A32C-437334225F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CF3D45-7E1B-4DDA-8972-B23F160D315B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{698876F9-46BE-4F53-9E76-1F69EAA5FA2D}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{698876F9-46BE-4F53-9E76-1F69EAA5FA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,30 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -636,7 +625,7 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -710,7 +699,7 @@
       </c>
       <c r="N2" s="9">
         <f>SUM(J2,J5)</f>
-        <v>1615400.5</v>
+        <v>1625400.5</v>
       </c>
       <c r="O2" t="s">
         <v>10</v>
@@ -733,7 +722,7 @@
       </c>
       <c r="N3" s="10">
         <f>N2/4</f>
-        <v>403850.125</v>
+        <v>406350.125</v>
       </c>
       <c r="O3" t="s">
         <v>10</v>
@@ -783,14 +772,14 @@
         <v>18600</v>
       </c>
       <c r="F5" s="7">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2">
         <f>(B5/C5)*D5+SUM(E5:I5)</f>
-        <v>69112.5</v>
+        <v>79112.5</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>10</v>
@@ -823,20 +812,20 @@
       <c r="K6" s="4"/>
       <c r="M6" s="14" cm="1">
         <f t="array" ref="M6">SUM(ROUND(M7:M10, -1))</f>
-        <v>712550</v>
+        <v>715050</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14" cm="1">
         <f t="array" ref="O6">SUM(ROUND(O7:O10, -1))</f>
-        <v>712550</v>
+        <v>715050</v>
       </c>
       <c r="P6" s="14" cm="1">
         <f t="array" ref="P6">SUM(ROUND(P7:P10, -1))</f>
-        <v>700570</v>
+        <v>703070</v>
       </c>
       <c r="Q6" s="14" cm="1">
         <f t="array" ref="Q6">SUM(ROUND(Q7:Q10, -1))</f>
-        <v>712550</v>
+        <v>715050</v>
       </c>
       <c r="R6" t="s">
         <v>10</v>
@@ -859,20 +848,20 @@
       </c>
       <c r="M7" s="13">
         <f>N3</f>
-        <v>403850.125</v>
+        <v>406350.125</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13">
         <f>N3</f>
-        <v>403850.125</v>
+        <v>406350.125</v>
       </c>
       <c r="P7" s="13">
         <f>N3</f>
-        <v>403850.125</v>
+        <v>406350.125</v>
       </c>
       <c r="Q7" s="13">
         <f>N3</f>
-        <v>403850.125</v>
+        <v>406350.125</v>
       </c>
       <c r="R7" t="s">
         <v>10</v>
